--- a/bank/hasil_konversi/bca_output.xlsx
+++ b/bank/hasil_konversi/bca_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>160416662.31</v>
+        <v>318599650.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6574186</v>
+        <v>13483175</v>
       </c>
       <c r="E3" t="n">
-        <v>166990848.31</v>
+        <v>332082825.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02/09/2024</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -513,37 +513,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4151852</v>
+        <v>6525848</v>
       </c>
       <c r="E4" t="n">
-        <v>171142700.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03/09/2024</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>O2O1/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>27050000</v>
       </c>
       <c r="D5" t="n">
-        <v>2606550</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>173749250.31</v>
+        <v>311558673.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04/09/2024</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -555,16 +555,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>972180</v>
+        <v>33265241</v>
       </c>
       <c r="E6" t="n">
-        <v>174721430.31</v>
+        <v>344823914.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/09/2024</t>
+          <t>04/01/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,16 +576,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>577416</v>
+        <v>9423862</v>
       </c>
       <c r="E7" t="n">
-        <v>175298846.31</v>
+        <v>354247776.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09/09/2024</t>
+          <t>05/01/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -597,79 +597,79 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12239381</v>
+        <v>8572629</v>
       </c>
       <c r="E8" t="n">
-        <v>187538227.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>05/01/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>MID 885001770398</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>60988829</v>
+        <v>1023153.12</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>363843558.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DB 10O9/FTSCY /WS95051</t>
+          <t>MID:001770398</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58025000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8164244</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>372007802.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10/09/2024</t>
+          <t>07/01/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DB 1009/FTSCY /WS95051</t>
+          <t>O6O1/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54405000</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6121898</v>
       </c>
       <c r="E11" t="n">
-        <v>136097056.31</v>
+        <v>378129700.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12/09/2024</t>
+          <t>07/01/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -681,37 +681,37 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>12405939</v>
+        <v>7306984</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>385436684.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12/09/2024</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DB 1209/FTSCY /WS95051</t>
+          <t>MID:001770398</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5570888</v>
       </c>
       <c r="E13" t="n">
-        <v>148183234.31</v>
+        <v>391007572.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13/09/2024</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -723,37 +723,37 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>805240</v>
+        <v>4360016</v>
       </c>
       <c r="E14" t="n">
-        <v>148988474.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14/09/2024</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>O9O1/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>244730000</v>
       </c>
       <c r="D15" t="n">
-        <v>9705970</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>158694444.31</v>
+        <v>150637588.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15/09/2024</t>
+          <t>10/01/2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -765,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3442950</v>
+        <v>9181621</v>
       </c>
       <c r="E16" t="n">
-        <v>162137394.31</v>
+        <v>159819209.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16/09/2024</t>
+          <t>11/01/2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6152053</v>
+        <v>20261504</v>
       </c>
       <c r="E17" t="n">
-        <v>168289</v>
+        <v>180080713.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17/09/2024</t>
+          <t>12/01/2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -807,16 +807,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>12834834</v>
+        <v>10643898</v>
       </c>
       <c r="E18" t="n">
-        <v>181124281.31</v>
+        <v>190724611.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18/09/2024</t>
+          <t>13/01/2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -828,58 +828,58 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>10119323</v>
+        <v>11136960</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>201861571.15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18/09/2024</t>
+          <t>14/01/2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001770398</t>
+          <t>MID:001770398</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4910000</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2628790</v>
       </c>
       <c r="E20" t="n">
-        <v>186333604.31</v>
+        <v>204490361.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19/09/2024</t>
+          <t>14/01/2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>14O1/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>35550000</v>
       </c>
       <c r="D21" t="n">
-        <v>3018943</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>189352547.31</v>
+        <v>168940361.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20/09/2024</t>
+          <t>15/01/2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1380741</v>
+        <v>5139229</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -900,24 +900,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20/09/2024</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>15/01/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NTRF@1185719261</t>
+        </is>
+      </c>
       <c r="C23" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6875000</v>
       </c>
       <c r="E23" t="n">
-        <v>190713288.31</v>
+        <v>180954590.15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21/09/2024</t>
+          <t>16/01/2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -929,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1865800</v>
+        <v>7728376</v>
       </c>
       <c r="E24" t="n">
-        <v>192579088.31</v>
+        <v>188682966.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22/09/2024</t>
+          <t>17/01/2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -950,37 +954,33 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6848379</v>
+        <v>6895087</v>
       </c>
       <c r="E25" t="n">
-        <v>199427467.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23/09/2024</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MID:001770398</t>
-        </is>
-      </c>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D26" t="n">
-        <v>8410830</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>207838297.31</v>
+        <v>195558053.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24/09/2024</t>
+          <t>18/01/2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -992,16 +992,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3972041</v>
+        <v>8014683</v>
       </c>
       <c r="E27" t="n">
-        <v>211810338.31</v>
+        <v>203572736.15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25/09/2024</t>
+          <t>19/01/2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1013,16 +1013,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13889072</v>
+        <v>6255144</v>
       </c>
       <c r="E28" t="n">
-        <v>225699410.31</v>
+        <v>209827880.15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26/09/2024</t>
+          <t>20/01/2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6178795</v>
+        <v>10723347</v>
       </c>
       <c r="E29" t="n">
-        <v>231878205.31</v>
+        <v>220551227.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27/09/2024</t>
+          <t>21/01/2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1055,37 +1055,37 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1805319</v>
+        <v>2563183</v>
       </c>
       <c r="E30" t="n">
-        <v>233683524.31</v>
+        <v>223114410.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28/09/2024</t>
+          <t>21/01/2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>DR 028</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>533624</v>
+        <v>925000</v>
       </c>
       <c r="E31" t="n">
-        <v>234217148.31</v>
+        <v>224039410.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>29/09/2024</t>
+          <t>22/01/2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1097,82 +1097,292 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>12537751</v>
+        <v>17828643</v>
       </c>
       <c r="E32" t="n">
-        <v>246754899.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/09/2024</t>
+          <t>22/01/2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>22O1/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>11125000</v>
       </c>
       <c r="D33" t="n">
-        <v>15024496</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>230743053.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/09/2024</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1540.5</v>
+        <v>4094940</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>234837993.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/09/2024</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
       <c r="C35" t="n">
-        <v>308.1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4968134</v>
       </c>
       <c r="E35" t="n">
-        <v>261780627.71</v>
+        <v>239806127.15</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>25/01/2025</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7988959</v>
+      </c>
+      <c r="E36" t="n">
+        <v>247795086.15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>26/01/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8718225</v>
+      </c>
+      <c r="E37" t="n">
+        <v>256513311.15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14955267</v>
+      </c>
+      <c r="E38" t="n">
+        <v>271468578.15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>28/01/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8589883</v>
+      </c>
+      <c r="E39" t="n">
+        <v>280058461.15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2772665</v>
+      </c>
+      <c r="E40" t="n">
+        <v>282831126.15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>29O1/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>66415000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>216416126.15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1767600</v>
+      </c>
+      <c r="E42" t="n">
+        <v>218183726.15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MID:001770398</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5317589</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2125.07</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>425.01</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>223503015.21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>SALDO AKHIR</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>250100388.71</v>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>223503015.21</v>
       </c>
     </row>
   </sheetData>

--- a/bank/hasil_konversi/bca_output.xlsx
+++ b/bank/hasil_konversi/bca_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,46 +474,46 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>318599650.03</v>
+        <v>44127974.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>KE 016</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="D3" t="n">
-        <v>13483175</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>332082825.03</v>
+        <v>39127974.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>TRANSFER KE 016</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="D4" t="n">
-        <v>6525848</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -522,82 +522,82 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O2O1/FTSCY/WS95051</t>
+          <t>OI11/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27050000</v>
+        <v>548800</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>311558673.03</v>
+        <v>38572674.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>04/11/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>O411/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3150000</v>
       </c>
       <c r="D6" t="n">
-        <v>33265241</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>344823914.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04/01/2025</t>
+          <t>04/11/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>O411/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="D7" t="n">
-        <v>9423862</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>354247776.03</v>
+        <v>30422674.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05/01/2025</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>09/11 95051</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2247410</v>
       </c>
       <c r="D8" t="n">
-        <v>8572629</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -606,124 +606,124 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05/01/2025</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MID 885001770398</t>
+          <t>09/11 95051</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>790789</v>
       </c>
       <c r="D9" t="n">
-        <v>1023153.12</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>363843558.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>09/11 95051</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>72011</v>
       </c>
       <c r="D10" t="n">
-        <v>8164244</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>372007802.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07/01/2025</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O6O1/FTSCY/WS95051</t>
+          <t>09/11 95051</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>6121898</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>378129700.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07/01/2025</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>O9I1/FTFVA/WS95051</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2953747</v>
       </c>
       <c r="D12" t="n">
-        <v>7306984</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>385436684.15</v>
+        <v>24338717.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>O9I1/FTFVA/WS95051</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5148972</v>
       </c>
       <c r="D13" t="n">
-        <v>5570888</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>391007572.15</v>
+        <v>19189745.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>10/11 WSID95O7178</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>113500</v>
       </c>
       <c r="D14" t="n">
-        <v>4360016</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -732,229 +732,229 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O9O1/FTSCY/WS95051</t>
+          <t>1011/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>244730000</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>203200000</v>
       </c>
       <c r="E15" t="n">
-        <v>150637588.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>1O11/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>10295000</v>
       </c>
       <c r="D16" t="n">
-        <v>9181621</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159819209.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>1O11/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1635000</v>
       </c>
       <c r="D17" t="n">
-        <v>20261504</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>180080713.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>11796525</v>
       </c>
       <c r="D18" t="n">
-        <v>10643898</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>190724611.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D19" t="n">
-        <v>11136960</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>201861571.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>1011/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2091375</v>
       </c>
       <c r="D20" t="n">
-        <v>2628790</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>204490361.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>14/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14O1/FTSCY/WS95051</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35550000</v>
+        <v>1969500</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>168940361.15</v>
+        <v>194486345.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>15/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D22" t="n">
-        <v>5139229</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>194483845.44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NTRF@1185719261</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1267500</v>
       </c>
       <c r="D23" t="n">
-        <v>6875000</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>180954590.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D24" t="n">
-        <v>7728376</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>188682966.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>1011/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>365625</v>
       </c>
       <c r="D25" t="n">
-        <v>6895087</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -963,141 +963,145 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17/01/2025</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1O11/FTSCY/WS95051</t>
+        </is>
+      </c>
       <c r="C26" t="n">
-        <v>20000</v>
+        <v>6125000</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>195558053.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>18/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>1O11/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1265000</v>
       </c>
       <c r="D27" t="n">
-        <v>8014683</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>203572736.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1372500</v>
       </c>
       <c r="D28" t="n">
-        <v>6255144</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>209827880.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D29" t="n">
-        <v>10723347</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>220551227.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>21/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>12283200</v>
       </c>
       <c r="D30" t="n">
-        <v>2563183</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>223114410.15</v>
+        <v>171800020.44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>21/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DR 028</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D31" t="n">
-        <v>925000</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>224039410.15</v>
+        <v>171797520.44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>22/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>1O11/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2071000</v>
       </c>
       <c r="D32" t="n">
-        <v>17828643</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1106,229 +1110,229 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22O1/FTSCY/WS95051</t>
+          <t>1O11/FTSCY/WS95051</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11125000</v>
+        <v>3980000</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>230743053.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>23/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>114500</v>
       </c>
       <c r="D34" t="n">
-        <v>4094940</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>234837993.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>24/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D35" t="n">
-        <v>4968134</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>239806127.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>25/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>KE 013</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>448000</v>
       </c>
       <c r="D36" t="n">
-        <v>7988959</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>247795086.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>26/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>TRANSFER KE 013</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="D37" t="n">
-        <v>8718225</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>256513311.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>27/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>546000</v>
       </c>
       <c r="D38" t="n">
-        <v>14955267</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>271468578.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>28/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D39" t="n">
-        <v>8589883</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>280058461.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="D40" t="n">
-        <v>2772665</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>282831126.15</v>
+        <v>164587520.44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>29/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>29O1/FTSCY/WS95051</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>66415000</v>
+        <v>2500</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>216416126.15</v>
+        <v>164585020.44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF TRANSFER KE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="D42" t="n">
-        <v>1767600</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>218183726.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>31/01/2025</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MID:001770398</t>
+          <t>BIF BIAYA TXN KE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D43" t="n">
-        <v>5317589</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1337,15 +1341,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>31/01/2025</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1011/FTSCY/WS95051</t>
+        </is>
+      </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="D44" t="n">
-        <v>2125.07</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1354,35 +1362,762 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>31/01/2025</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KE 013</t>
+        </is>
+      </c>
       <c r="C45" t="n">
-        <v>425.01</v>
+        <v>8025000</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>223503015.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>TRANSFER KE 013</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BIF TRANSFER KE</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>43847700.27</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BIF BIAYA TXN KE</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1O11/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2358000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1O11/FTSCYIWS95051</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>424125</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>59648695.17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10/11 WSID95O7159</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>93739</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>59554956.17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10/11 WSID9507159</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>93352</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>59461604.17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>14/11 WSID9507165</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5853265</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>14/11 WSID95O7165</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>7501169</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RTGS-PT. BANK NEGA</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1411/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3983650</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1411/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>10940000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>KE008</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TRANSFER KE 008</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KE 008</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>37388760</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>93788260.17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TRANSFER KE 008</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>93781760.17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1511/PYBCA/WS95051</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>32350947.14</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>61410813.03</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BIF TRANSFER KE</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BIF BIAYA TXN KE</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>60268313.03</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1911/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1544924</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>58723389.03</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BIF TRANSFER KE</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BIF BIAYA TXN KE</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>56920889.03</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BIF TRANSFER KE</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1434248.76</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BIF BIAYA TXN KE</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2811/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2521055</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>52963085.27</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2811/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2614246</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>50348839.27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2911/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>5987000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2911/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>59755000</v>
+      </c>
+      <c r="E74" t="n">
+        <v>104116839.27</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3011/PYBCA/WS95051</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>56750652.51</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3011/FTSCY/WS95051</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BIF TRANSFER KE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BIF BIAYA TXN KE</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>430.99</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>44064031.55</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>SALDO AKHIR</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>223503015.21</v>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>44064031.55000007</v>
       </c>
     </row>
   </sheetData>
